--- a/03_Product_Backlog_Multiplicando.com_2.0.xlsx
+++ b/03_Product_Backlog_Multiplicando.com_2.0.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e98c9bf0ad9289f/Escritorio/Programacion Mintic/Ciclo 4/Desarrollo de Software/Proyecto/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/7e98c9bf0ad9289f/Escritorio/Programacion Mintic/Ciclo 4/Desarrollo de Software/Proyecto/Sprint 4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="8_{DF84E391-9828-4752-9354-895B9C2C3F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{90284D46-22AA-4D4F-83AA-F82CF354FF50}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="8_{DF84E391-9828-4752-9354-895B9C2C3F85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDE577E0-8FC0-401E-B6DF-C233833A9B67}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,13 +349,6 @@
     <t>Construir Historias de Usuario a desarrollar en Sprint No.4</t>
   </si>
   <si>
-    <t>Stack: MEVN
-Fronted: React
-Backend: JavaScript, Express, Node JS
-Base de datos: Mongo DB
-Estilos: Css - Boostrap</t>
-  </si>
-  <si>
     <t>Se Actualiza Product Backlog Priorizado</t>
   </si>
   <si>
@@ -393,6 +386,13 @@
   </si>
   <si>
     <t>Despliegue Frontend en Heroku</t>
+  </si>
+  <si>
+    <t>Stack: MERN
+Fronted: React
+Backend: JavaScript, Express, Node JS
+Base de datos: Mongo DB
+Estilos: Css - Boostrap</t>
   </si>
 </sst>
 </file>
@@ -7998,7 +7998,7 @@
         <v>44522</v>
       </c>
       <c r="I44" s="90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J44" s="11">
         <v>5</v>
@@ -8150,7 +8150,7 @@
         <v>44522</v>
       </c>
       <c r="I48" s="97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J48" s="11">
         <v>5</v>
@@ -8226,7 +8226,7 @@
         <v>44522</v>
       </c>
       <c r="I50" s="90" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J50" s="11">
         <v>6</v>
@@ -8264,7 +8264,7 @@
         <v>44522</v>
       </c>
       <c r="I51" s="116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J51" s="115">
         <v>6</v>
@@ -8302,7 +8302,7 @@
         <v>44522</v>
       </c>
       <c r="I52" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="J52" s="115">
         <v>6</v>
@@ -12274,7 +12274,7 @@
   <dimension ref="A1:Z1008"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -12371,7 +12371,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="91" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C3" s="28" t="s">
         <v>32</v>
@@ -12477,7 +12477,7 @@
         <v>33</v>
       </c>
       <c r="H5" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I5" s="35"/>
       <c r="J5" s="26"/>
@@ -12741,7 +12741,7 @@
         <v>63</v>
       </c>
       <c r="H11" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I11" s="35" t="s">
         <v>64</v>
@@ -12787,7 +12787,7 @@
         <v>63</v>
       </c>
       <c r="H12" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I12" s="35" t="s">
         <v>64</v>
@@ -12833,7 +12833,7 @@
         <v>63</v>
       </c>
       <c r="H13" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I13" s="35" t="s">
         <v>64</v>
@@ -12879,7 +12879,7 @@
         <v>63</v>
       </c>
       <c r="H14" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I14" s="35" t="s">
         <v>64</v>
@@ -13101,7 +13101,7 @@
         <v>66</v>
       </c>
       <c r="H19" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I19" s="35" t="s">
         <v>64</v>
@@ -13147,7 +13147,7 @@
         <v>66</v>
       </c>
       <c r="H20" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I20" s="35" t="s">
         <v>64</v>
@@ -13193,7 +13193,7 @@
         <v>66</v>
       </c>
       <c r="H21" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I21" s="35" t="s">
         <v>64</v>
@@ -13239,7 +13239,7 @@
         <v>66</v>
       </c>
       <c r="H22" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I22" s="35" t="s">
         <v>64</v>
@@ -13461,7 +13461,7 @@
         <v>62</v>
       </c>
       <c r="H27" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I27" s="82"/>
       <c r="J27" s="26"/>
@@ -13505,7 +13505,7 @@
         <v>62</v>
       </c>
       <c r="H28" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I28" s="82"/>
       <c r="J28" s="26"/>
@@ -13549,7 +13549,7 @@
         <v>33</v>
       </c>
       <c r="H29" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I29" s="82"/>
       <c r="J29" s="26"/>
@@ -13637,7 +13637,7 @@
         <v>33</v>
       </c>
       <c r="H31" s="106" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I31" s="82"/>
       <c r="J31" s="26"/>
@@ -13681,7 +13681,7 @@
         <v>33</v>
       </c>
       <c r="H32" s="81" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I32" s="82"/>
       <c r="J32" s="26"/>
@@ -13707,7 +13707,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C33" s="33" t="s">
         <v>32</v>
@@ -13725,7 +13725,7 @@
         <v>62</v>
       </c>
       <c r="H33" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I33" s="82"/>
       <c r="J33" s="26"/>
@@ -13769,7 +13769,7 @@
         <v>62</v>
       </c>
       <c r="H34" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I34" s="82"/>
       <c r="J34" s="26"/>
@@ -13813,7 +13813,7 @@
         <v>33</v>
       </c>
       <c r="H35" s="107" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I35" s="82"/>
       <c r="J35" s="26"/>
@@ -13883,7 +13883,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="97" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C37" s="33" t="s">
         <v>32</v>
@@ -13901,7 +13901,7 @@
         <v>33</v>
       </c>
       <c r="H37" s="106" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I37" s="82"/>
       <c r="J37" s="26"/>
@@ -13945,7 +13945,7 @@
         <v>33</v>
       </c>
       <c r="H38" s="89" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I38" s="82"/>
       <c r="J38" s="26"/>
@@ -13971,7 +13971,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="90" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" s="109" t="s">
         <v>32</v>
@@ -13989,7 +13989,7 @@
         <v>62</v>
       </c>
       <c r="H39" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I39" s="82"/>
       <c r="J39" s="26"/>
@@ -14015,7 +14015,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="116" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="109" t="s">
         <v>32</v>
@@ -14033,7 +14033,7 @@
         <v>62</v>
       </c>
       <c r="H40" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I40" s="82"/>
       <c r="J40" s="26"/>
@@ -14059,7 +14059,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="117" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="109" t="s">
         <v>32</v>
@@ -14077,7 +14077,7 @@
         <v>62</v>
       </c>
       <c r="H41" s="106" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="I41" s="110"/>
       <c r="J41" s="26"/>
@@ -14121,7 +14121,7 @@
         <v>33</v>
       </c>
       <c r="H42" s="89" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I42" s="110"/>
       <c r="J42" s="26"/>
